--- a/data/trans_camb/P7A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P7A_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,34</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,27</t>
+          <t>-7,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-5,07</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-10,45</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-5,61</t>
+          <t>12,69</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>-8,71</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>4,39</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 8,8</t>
+          <t>-19,16; 15,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 3,9</t>
+          <t>-15,47; 15,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 6,44</t>
+          <t>-16,31; 14,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 2,26</t>
+          <t>-29,45; 9,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 6,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 1,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 3,02</t>
+          <t>-6,16; 16,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,7; -3,62</t>
+          <t>-8,69; 11,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 4,73</t>
+          <t>-7,83; 12,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 0,17</t>
+          <t>1,27; 24,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 1,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-14,29; -2,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-8,87; 11,21</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-9,06; 9,08</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-7,66; 9,0</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-7,39; 14,52</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,21%</t>
+          <t>-4,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,63%</t>
+          <t>-3,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,16%</t>
+          <t>-4,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,13%</t>
+          <t>-12,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-7,01%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-14,45%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-2,34%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-8,28%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-6,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-12,85%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-0,79%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-0,2%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>6,97%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,08; 15,24</t>
+          <t>-28,21; 29,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,96; 6,86</t>
+          <t>-21,47; 32,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,89; 10,91</t>
+          <t>-23,2; 30,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 3,89</t>
+          <t>-43,89; 16,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 8,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 1,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 4,33</t>
+          <t>-8,44; 29,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,66; -5,11</t>
+          <t>-12,21; 20,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 7,36</t>
+          <t>-11,1; 21,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 0,27</t>
+          <t>1,74; 44,82</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 2,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-20,59; -4,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-13,02; 19,58</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-12,92; 15,99</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-11,24; 15,59</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-10,63; 24,91</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,67</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>8,28</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,65</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-1,74</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>6,67</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 5,15</t>
+          <t>-6,5; 9,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 4,04</t>
+          <t>-10,38; 4,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 4,37</t>
+          <t>-10,8; 3,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 6,24</t>
+          <t>-3,77; 13,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 5,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 1,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 1,26</t>
+          <t>-5,48; 8,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 0,8</t>
+          <t>-7,8; 5,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 3,54</t>
+          <t>-6,82; 6,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 1,37</t>
+          <t>0,21; 15,55</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 1,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 1,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,87; 7,12</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-6,92; 3,35</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-6,85; 2,78</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 11,95</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,59%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,69%</t>
+          <t>-9,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,05%</t>
+          <t>-11,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>16,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-11,0%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-14,47%</t>
+          <t>-1,75%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-1,17%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-8,03%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-7,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-6,42%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-5,41%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-5,69%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>21,84%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,62; 19,72</t>
+          <t>-19,21; 33,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 15,04</t>
+          <t>-29,29; 18,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 15,71</t>
+          <t>-30,3; 14,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 24,07</t>
+          <t>-10,47; 50,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 17,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 3,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 4,4</t>
+          <t>-15,64; 34,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,31; 2,88</t>
+          <t>-22,48; 21,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 11,78</t>
+          <t>-18,86; 25,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 4,35</t>
+          <t>0,23; 59,77</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 4,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-18,09; 6,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-11,86; 26,04</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-20,71; 11,9</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-20,12; 10,1</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1,43; 43,08</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 6,35</t>
+          <t>-7,85; 8,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 6,31</t>
+          <t>-5,69; 10,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 5,87</t>
+          <t>-8,99; 7,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 4,6</t>
+          <t>-7,51; 9,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 5,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 4,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 5,53</t>
+          <t>-8,46; 5,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 8,95</t>
+          <t>-7,41; 5,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 3,81</t>
+          <t>-5,98; 6,6</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 3,63</t>
+          <t>-3,04; 11,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 4,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 4,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,73; 5,18</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 6,03</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-5,17; 4,59</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 9,29</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,15%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,53%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,21%</t>
+          <t>-1,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-10,94%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-4,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>-5,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>-3,46%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-1,44%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-3,08%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-1,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>-3,03%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-0,92%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>3,51%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>0,09%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>13,04%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,96; 24,66</t>
+          <t>-23,91; 35,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,95; 24,41</t>
+          <t>-15,86; 43,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,2; 22,79</t>
+          <t>-25,69; 32,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,65; 16,53</t>
+          <t>-22,26; 39,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,53; 27,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,63; 24,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 30,68</t>
+          <t>-33,72; 30,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-20,64; 48,94</t>
+          <t>-28,93; 30,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 15,88</t>
+          <t>-23,16; 36,91</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 16,56</t>
+          <t>-11,17; 62,92</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-17,32; 18,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-23,66; 19,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-23,72; 22,51</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-15,66; 26,45</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-18,29; 20,17</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-9,41; 41,74</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-2,81</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 3,75</t>
+          <t>-7,35; 4,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 3,4</t>
+          <t>-10,42; 3,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 3,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 5,56</t>
+          <t>0,99; 15,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 3,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 1,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 2,16</t>
+          <t>-3,39; 7,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 3,98</t>
+          <t>-6,88; 5,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 2,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 0,94</t>
+          <t>-9,27; 3,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 1,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 3,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 3,93</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-7,83; 1,91</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 7,19</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,97%</t>
+          <t>-5,27%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,74%</t>
+          <t>-12,03%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-6,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-5,3%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-1,77%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-1,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-4,13%</t>
+          <t>-6,42%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-3,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-0,28%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-7,25%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 11,01</t>
+          <t>-19,52; 14,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 10,34</t>
+          <t>-27,94; 9,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 10,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 16,68</t>
+          <t>2,72; 47,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 8,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 4,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 5,87</t>
+          <t>-7,49; 18,41</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 10,62</t>
+          <t>-15,03; 13,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 6,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 2,66</t>
+          <t>-20,59; 9,44</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 4,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 8,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-10,92; 10,57</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-19,35; 5,19</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-5,4; 18,84</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4,24</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-2,51</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-2,27</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3,95</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-1,54</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-1,39</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>4,1</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-4,65; 4,25</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; 3,32</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 3,56</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,51; 8,41</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 3,86</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,96; 0,96</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,83; 1,56</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 7,86</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 2,9</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 1,45</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-3,99; 1,27</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 7,06</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-1,11%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-1,52%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-1,32%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>12,09%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-6,47%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-5,84%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>10,19%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-0,36%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-4,18%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-3,76%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>11,08%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-12,53; 12,8</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-12,68; 10,03</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-12,79; 10,67</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 24,78</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-7,96; 10,42</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-14,87; 2,44</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-14,47; 4,03</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 20,82</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-7,65; 8,28</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-11,14; 4,16</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-10,39; 3,48</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 19,63</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
